--- a/biology/Botanique/Aechmea_muricata/Aechmea_muricata.xlsx
+++ b/biology/Botanique/Aechmea_muricata/Aechmea_muricata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aechmea muricata est une espèce de plantes à fleurs de la famille des Bromeliaceae, endémique de la forêt atlantique (mata atlântica en portugais) au Brésil.
 </t>
@@ -511,14 +523,16 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Aechmea stephanophora E.Morren ex Baker[1] ;
-Ananas muricatus (Arruda) Schult. &amp; Schult.f.[1] ;
-Ananassa muricata (Arruda) D.Dietr.[1] ;
-Bromelia muricata Arruda[1] ;
-Chevaliera muricata (Arruda) L.B.Sm. &amp; W.J.Kress[1] ;
-Chevaliera stephanophora (E.Morren ex Baker) Mez[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Aechmea stephanophora E.Morren ex Baker ;
+Ananas muricatus (Arruda) Schult. &amp; Schult.f. ;
+Ananassa muricata (Arruda) D.Dietr. ;
+Bromelia muricata Arruda ;
+Chevaliera muricata (Arruda) L.B.Sm. &amp; W.J.Kress ;
+Chevaliera stephanophora (E.Morren ex Baker) Mez.</t>
         </is>
       </c>
     </row>
@@ -546,9 +560,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est endémique des États de Alagoas et Pernambuco au Brésil[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique des États de Alagoas et Pernambuco au Brésil.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est épiphyte[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est épiphyte.
 </t>
         </is>
       </c>
